--- a/Projectmanagement/Backlog and Sprint Backlogs.xlsx
+++ b/Projectmanagement/Backlog and Sprint Backlogs.xlsx
@@ -44,7 +44,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Priorities from 0-100</t>
+Priorities from 0 to 100
+(100 is very important)</t>
         </r>
       </text>
     </comment>
@@ -68,7 +69,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-automatically filled</t>
+filled automatically</t>
         </r>
       </text>
     </comment>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Userstory</t>
   </si>
@@ -110,18 +111,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Spieler</t>
-  </si>
-  <si>
-    <t>einen Highscore sehen</t>
-  </si>
-  <si>
-    <t>meine Leistung vergleichen zu können.</t>
-  </si>
-  <si>
-    <t>Ein Feld an der Seite, das beim Überfliegen einer Spieloption, mir die letzten Highscores in diesem Spielmodus anzeigt</t>
-  </si>
-  <si>
     <t>Highscore</t>
   </si>
   <si>
@@ -140,78 +129,12 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>sehen, wie viel Energie ich gerade erzeuge</t>
-  </si>
-  <si>
-    <t>Anzeige zur erzeugten Ernergie, drehe ich die Kurbel schneller geht der Wert hoch, drehe ich nicht, zeigt der Wert 0 an.</t>
-  </si>
-  <si>
-    <t>Reale Anzeige möglich?</t>
-  </si>
-  <si>
-    <t>Anzeige erzeugte Energie</t>
-  </si>
-  <si>
-    <t>ggf. noch einmal Vollgas zu geben.</t>
-  </si>
-  <si>
-    <t>Entwurf in GUI-Builder</t>
-  </si>
-  <si>
-    <t>Spielstand speichern</t>
-  </si>
-  <si>
-    <t>keine Ahnung, fragen, wie das geht</t>
-  </si>
-  <si>
-    <t>Spielstand wieder herstellen</t>
-  </si>
-  <si>
-    <t>GUI und Daten verbinden</t>
-  </si>
-  <si>
-    <t>sollte machbar sein, aber noch unsicher</t>
-  </si>
-  <si>
-    <t>Wert in Arduino erfassen und ggf. skalieren</t>
-  </si>
-  <si>
-    <t>ausprobieren und Zahlen bewerten</t>
-  </si>
-  <si>
-    <t>Wert nach Processing übergeben</t>
-  </si>
-  <si>
-    <t>genau wie in der Vorlesung</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
     <t>Story-Id</t>
   </si>
   <si>
-    <t>Kunde</t>
-  </si>
-  <si>
-    <t>Persona extrahieren</t>
-  </si>
-  <si>
-    <t>ein Bild möglicher Benutzer in der Interaktion mit der Software haben</t>
-  </si>
-  <si>
-    <t>Persona + Anwendungsszenarien</t>
-  </si>
-  <si>
-    <t>Anwendungsszenarien erstellen</t>
-  </si>
-  <si>
-    <t>nach den Interviews</t>
-  </si>
-  <si>
-    <t>Kunde/Dozent nimmt die Persona und Anwendungsszenarien ab.</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -224,42 +147,12 @@
     <t>1.1.4</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>einschätzen zu können, ob Kinder an dem Spiel Spaß haben könnten.</t>
-  </si>
-  <si>
-    <t>Interviews mit 3 Kindern</t>
-  </si>
-  <si>
     <t>Hans</t>
   </si>
   <si>
     <t>Peter</t>
   </si>
   <si>
-    <t>Jakob</t>
-  </si>
-  <si>
     <t>Peter und Jakob</t>
   </si>
   <si>
@@ -297,6 +190,30 @@
   </si>
   <si>
     <t>estimated Value/hours</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>see the highscore</t>
+  </si>
+  <si>
+    <t>A button to see the highscore.</t>
+  </si>
+  <si>
+    <t>I can compare it to other people</t>
+  </si>
+  <si>
+    <t>design in GUI-Builder</t>
+  </si>
+  <si>
+    <t>save score</t>
+  </si>
+  <si>
+    <t>restore the score</t>
+  </si>
+  <si>
+    <t>connect data and GUI</t>
   </si>
 </sst>
 </file>
@@ -423,6 +340,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -463,7 +381,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J65536" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A1:J65536" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="Überschrift">
   <autoFilter ref="A1:J65536">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -483,15 +401,15 @@
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Priority"/>
     <tableColumn id="4" name="Sprint"/>
-    <tableColumn id="5" name="Userstory" dataDxfId="8"/>
-    <tableColumn id="6" name="User" dataDxfId="7"/>
-    <tableColumn id="7" name="Goal/Aim" dataDxfId="6"/>
-    <tableColumn id="8" name="Reason/Why" dataDxfId="5"/>
-    <tableColumn id="9" name="Acceptance" dataDxfId="4"/>
-    <tableColumn id="10" name="Short description" dataDxfId="3"/>
-    <tableColumn id="12" name="Comment" dataDxfId="2"/>
+    <tableColumn id="5" name="Userstory" dataDxfId="0"/>
+    <tableColumn id="6" name="User" dataDxfId="8"/>
+    <tableColumn id="7" name="Goal/Aim" dataDxfId="7"/>
+    <tableColumn id="8" name="Reason/Why" dataDxfId="6"/>
+    <tableColumn id="9" name="Acceptance" dataDxfId="5"/>
+    <tableColumn id="10" name="Short description" dataDxfId="4"/>
+    <tableColumn id="12" name="Comment" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -782,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,124 +725,61 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>CONCATENATE("Als ",E2," möchte ich ",F2,", um ",G2)</f>
-        <v>Als Spieler möchte ich einen Highscore sehen, um meine Leistung vergleichen zu können.</v>
+        <f>CONCATENATE("As ",E2," I want to ",F2," so that ",G2, ".")</f>
+        <v>As user I want to see the highscore so that I can compare it to other people.</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>CONCATENATE("Als ",E3," möchte ich ",F3,", um ",G3)</f>
-        <v>Als Spieler möchte ich sehen, wie viel Energie ich gerade erzeuge, um ggf. noch einmal Vollgas zu geben.</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>CONCATENATE("Als ",E4," möchte ich ",F4,", um ",G4)</f>
-        <v>Als Kunde möchte ich ein Bild möglicher Benutzer in der Interaktion mit der Software haben, um einschätzen zu können, ob Kinder an dem Spiel Spaß haben könnten.</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +796,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,13 +812,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -972,69 +827,69 @@
       </c>
       <c r="C2" s="2" t="str">
         <f>VLOOKUP('Sprint 1'!B2,Stories,4,FALSE)</f>
-        <v>Als Spieler möchte ich einen Highscore sehen, um meine Leistung vergleichen zu können.</v>
+        <v>As user I want to see the highscore so that I can compare it to other people.</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>VLOOKUP(B2,Stories,8,FALSE)</f>
-        <v>Ein Feld an der Seite, das beim Überfliegen einer Spieloption, mir die letzten Highscores in diesem Spielmodus anzeigt</v>
+        <v>A button to see the highscore.</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="2" t="e">
         <f>VLOOKUP('Sprint 1'!B3,Stories,4,FALSE)</f>
-        <v>Als Spieler möchte ich sehen, wie viel Energie ich gerade erzeuge, um ggf. noch einmal Vollgas zu geben.</v>
-      </c>
-      <c r="D3" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="2" t="e">
         <f>VLOOKUP(B3,Stories,8,FALSE)</f>
-        <v>Anzeige zur erzeugten Ernergie, drehe ich die Kurbel schneller geht der Wert hoch, drehe ich nicht, zeigt der Wert 0 an.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="2" t="e">
         <f>VLOOKUP('Sprint 1'!B4,Stories,4,FALSE)</f>
-        <v>Als Kunde möchte ich ein Bild möglicher Benutzer in der Interaktion mit der Software haben, um einschätzen zu können, ob Kinder an dem Spiel Spaß haben könnten.</v>
-      </c>
-      <c r="D4" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="2" t="e">
         <f>VLOOKUP(B4,Stories,8,FALSE)</f>
-        <v>Kunde/Dozent nimmt die Persona und Anwendungsszenarien ab.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1042,14 +897,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8:C18" si="0">VLOOKUP(A8,Stories,9,FALSE)</f>
         <v>Highscore</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E8" t="str">
         <f>IF(G8=0,"done",IF(H8&gt;0,"in progress","todo"))</f>
@@ -1065,7 +920,7 @@
         <v>0.5</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1074,14 +929,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Highscore</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ref="E9:E18" si="1">IF(G9=0,"done",IF(H9&gt;0,"in progress","todo"))</f>
@@ -1097,10 +952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1108,14 +960,14 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Highscore</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1131,10 +983,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1142,14 +991,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Highscore</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1165,281 +1014,70 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Anzeige erzeugte Energie</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>todo</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Anzeige erzeugte Energie</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>done</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Anzeige erzeugte Energie</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>todo</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Anzeige erzeugte Energie</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>todo</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Persona + Anwendungsszenarien</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>done</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2.5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Persona + Anwendungsszenarien</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>todo</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Persona + Anwendungsszenarien</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>todo</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
@@ -1471,9 +1109,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B12:B18" twoDigitTextYear="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>